--- a/Onboarding_Plan_Intern_V2.0.xlsx
+++ b/Onboarding_Plan_Intern_V2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Mathur\Desktop\trainingInterns.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="34" activeTab="40"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Checklists" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Day-4(C#)'!$A$1:$I$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1717,13 +1717,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="mmm"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1806,6 +1806,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2031,7 +2038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2208,14 +2215,32 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2244,6 +2269,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2256,32 +2290,8 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="20" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2679,9 +2689,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>59</v>
       </c>
@@ -2705,7 +2715,7 @@
       <c r="S1" s="52"/>
       <c r="T1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
@@ -2729,7 +2739,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2751,7 +2761,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -2775,7 +2785,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2797,7 +2807,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -2821,7 +2831,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2843,7 +2853,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
@@ -2869,7 +2879,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>60</v>
       </c>
@@ -2895,7 +2905,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>60</v>
       </c>
@@ -2921,7 +2931,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2943,7 +2953,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -2967,7 +2977,7 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2989,7 +2999,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -3015,7 +3025,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -3041,7 +3051,7 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>60</v>
       </c>
@@ -3067,7 +3077,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>60</v>
       </c>
@@ -3093,7 +3103,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>60</v>
       </c>
@@ -3119,7 +3129,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>60</v>
       </c>
@@ -3145,7 +3155,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
@@ -3171,7 +3181,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
@@ -3197,7 +3207,7 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>60</v>
       </c>
@@ -3223,7 +3233,7 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>60</v>
       </c>
@@ -3249,7 +3259,7 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -3275,7 +3285,7 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>60</v>
       </c>
@@ -3301,7 +3311,7 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>60</v>
       </c>
@@ -3327,7 +3337,7 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3349,7 +3359,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
@@ -3373,7 +3383,7 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>60</v>
       </c>
@@ -3399,7 +3409,7 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>60</v>
       </c>
@@ -3425,7 +3435,7 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>60</v>
       </c>
@@ -3451,7 +3461,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
@@ -3477,7 +3487,7 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>60</v>
       </c>
@@ -3503,7 +3513,7 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>60</v>
       </c>
@@ -3529,7 +3539,7 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -3555,7 +3565,7 @@
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>60</v>
       </c>
@@ -3581,7 +3591,7 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>60</v>
       </c>
@@ -3607,7 +3617,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>60</v>
       </c>
@@ -3633,7 +3643,7 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3655,7 +3665,7 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3677,7 +3687,7 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>46</v>
       </c>
@@ -3701,7 +3711,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3723,7 +3733,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3759,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -3775,7 +3785,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>60</v>
       </c>
@@ -3801,7 +3811,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3823,7 +3833,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>53</v>
       </c>
@@ -3847,7 +3857,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3869,7 +3879,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>60</v>
       </c>
@@ -3895,7 +3905,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>60</v>
       </c>
@@ -3921,7 +3931,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>60</v>
       </c>
@@ -3947,7 +3957,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>60</v>
       </c>
@@ -3973,7 +3983,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3995,7 +4005,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4017,7 +4027,7 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4039,7 +4049,7 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4077,20 +4087,20 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -4105,7 +4115,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -4120,7 +4130,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -4135,7 +4145,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -4150,7 +4160,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4231,20 +4241,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -4259,7 +4269,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -4274,7 +4284,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4299,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4314,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4333,7 +4343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4360,7 +4370,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="1">C6</f>
         <v>0.45833333333333337</v>
@@ -4385,7 +4395,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="1"/>
         <v>0.54166666666666674</v>
@@ -4406,7 +4416,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.56250000000000011</v>
@@ -4429,7 +4439,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.64583333333333348</v>
@@ -4454,7 +4464,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.72916666666666685</v>
@@ -4479,7 +4489,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" s="38" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="38" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <f t="shared" si="1"/>
         <v>0.77083333333333348</v>
@@ -4523,24 +4533,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -4555,7 +4565,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4580,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -4585,7 +4595,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -4600,7 +4610,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4656,7 +4666,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="46"/>
     </row>
-    <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -4681,7 +4691,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.54166666666666674</v>
@@ -4702,7 +4712,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -4723,7 +4733,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.63541666666666674</v>
@@ -4746,7 +4756,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.69791666666666674</v>
@@ -4788,24 +4798,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -4820,7 +4830,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +4845,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -4850,7 +4860,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -4865,7 +4875,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4921,7 +4931,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="46"/>
     </row>
-    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="1">C6</f>
         <v>0.5</v>
@@ -4944,17 +4954,17 @@
       <c r="H7" s="5"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="B8" s="23">
-        <v>2.0833333333333332E-2</v>
+      <c r="B8" s="91">
+        <v>6.25E-2</v>
       </c>
       <c r="C8" s="22">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>21</v>
@@ -4965,17 +4975,17 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B9" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>192</v>
@@ -4988,17 +4998,17 @@
       <c r="H9" s="5"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
-        <v>0.60416666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="B10" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>0.64583333333333326</v>
+        <v>0.68749999999999989</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>207</v>
@@ -5015,17 +5025,17 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
-        <v>0.64583333333333326</v>
+        <v>0.68749999999999989</v>
       </c>
       <c r="B11" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>0.68749999999999989</v>
+        <v>0.72916666666666652</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>207</v>
@@ -5042,17 +5052,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
-        <v>0.68749999999999989</v>
+        <v>0.72916666666666652</v>
       </c>
       <c r="B12" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>0.72916666666666652</v>
+        <v>0.77083333333333315</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>207</v>
@@ -5081,6 +5091,7 @@
     <mergeCell ref="D3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5092,20 +5103,20 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -5120,7 +5131,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -5135,7 +5146,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -5150,7 +5161,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -5165,7 +5176,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5221,7 +5232,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="1">C6</f>
         <v>0.5</v>
@@ -5244,7 +5255,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
@@ -5265,7 +5276,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
@@ -5288,7 +5299,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.63541666666666663</v>
@@ -5315,7 +5326,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.67708333333333326</v>
@@ -5342,7 +5353,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>0.69791666666666663</v>
@@ -5392,15 +5403,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" customWidth="1"/>
+    <col min="1" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -5411,7 +5422,7 @@
       </c>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -5422,7 +5433,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -5433,7 +5444,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -5444,7 +5455,7 @@
       </c>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5461,7 +5472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5478,7 +5489,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -5495,7 +5506,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.5</v>
@@ -5512,7 +5523,7 @@
       </c>
       <c r="E8" s="47"/>
     </row>
-    <row r="9" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f>C8</f>
         <v>0.54166666666666663</v>
@@ -5529,7 +5540,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.58333333333333326</v>
@@ -5546,7 +5557,7 @@
       </c>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.63541666666666663</v>
@@ -5584,15 +5595,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="5" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="5" width="56.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -5603,7 +5614,7 @@
       </c>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -5614,7 +5625,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -5625,7 +5636,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -5636,7 +5647,7 @@
       </c>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5653,7 +5664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5670,7 +5681,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.47916666666666669</v>
@@ -5687,7 +5698,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.54166666666666674</v>
@@ -5704,7 +5715,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -5721,7 +5732,7 @@
       </c>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.63541666666666674</v>
@@ -5759,20 +5770,20 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -5787,7 +5798,7 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -5802,7 +5813,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5828,7 @@
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -5832,7 +5843,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5907,20 +5918,20 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -5935,7 +5946,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -5950,7 +5961,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -5965,7 +5976,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -5980,7 +5991,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6009,7 +6020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6038,7 +6049,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -6059,7 +6070,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -6088,7 +6099,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -6140,20 +6151,20 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -6168,7 +6179,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -6183,7 +6194,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -6198,7 +6209,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -6213,7 +6224,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6242,7 +6253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6271,7 +6282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -6292,7 +6303,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -6321,7 +6332,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -6373,20 +6384,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -6401,7 +6412,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -6416,7 +6427,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -6431,7 +6442,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -6446,7 +6457,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6475,7 +6486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6502,7 +6513,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -6527,7 +6538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.5625</v>
@@ -6548,7 +6559,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -6577,7 +6588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.66666666666666674</v>
@@ -6629,20 +6640,20 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -6657,7 +6668,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -6672,7 +6683,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -6687,7 +6698,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -6702,7 +6713,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6731,7 +6742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6760,7 +6771,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -6781,7 +6792,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -6810,7 +6821,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -6862,20 +6873,20 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -6890,7 +6901,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -6905,7 +6916,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -6920,7 +6931,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -6935,7 +6946,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6964,7 +6975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6993,7 +7004,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -7014,7 +7025,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="81" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -7043,7 +7054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -7095,20 +7106,20 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -7123,7 +7134,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -7138,7 +7149,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -7153,7 +7164,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -7168,7 +7179,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7197,7 +7208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7226,7 +7237,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5</v>
@@ -7255,7 +7266,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f>C6</f>
         <v>0.5</v>
@@ -7276,7 +7287,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.52083333333333337</v>
@@ -7305,7 +7316,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.64583333333333337</v>
@@ -7357,20 +7368,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -7385,7 +7396,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -7400,7 +7411,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -7415,7 +7426,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -7430,7 +7441,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7459,7 +7470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7488,7 +7499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.5625</v>
@@ -7509,7 +7520,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.58333333333333337</v>
@@ -7536,7 +7547,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.70833333333333337</v>
@@ -7588,20 +7599,20 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -7616,7 +7627,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -7631,7 +7642,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -7646,7 +7657,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -7661,7 +7672,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7690,7 +7701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7717,7 +7728,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.5625</v>
@@ -7738,7 +7749,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.58333333333333337</v>
@@ -7767,7 +7778,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.66666666666666674</v>
@@ -7817,20 +7828,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -7845,7 +7856,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -7860,7 +7871,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -7875,7 +7886,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -7890,7 +7901,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7919,7 +7930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7948,7 +7959,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -7969,7 +7980,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -7998,7 +8009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.64583333333333348</v>
@@ -8048,20 +8059,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -8076,7 +8087,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -8091,7 +8102,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -8106,7 +8117,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -8121,7 +8132,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8150,7 +8161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8179,7 +8190,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.5</v>
@@ -8200,7 +8211,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.52083333333333337</v>
@@ -8227,7 +8238,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.60416666666666674</v>
@@ -8277,18 +8288,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="43.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -8303,7 +8314,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -8316,7 +8327,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -8332,7 +8343,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +8359,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8378,7 +8389,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8431,16 +8442,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -8455,7 +8466,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -8470,7 +8481,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -8486,7 +8497,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -8502,7 +8513,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8532,7 +8543,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8560,7 +8571,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8582,7 +8593,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8633,16 +8644,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -8657,7 +8668,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -8672,7 +8683,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -8688,7 +8699,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -8704,7 +8715,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8734,7 +8745,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8764,7 +8775,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8786,7 +8797,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8839,20 +8850,20 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -8867,7 +8878,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -8882,7 +8893,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -8897,7 +8908,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -8912,7 +8923,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8941,7 +8952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8970,7 +8981,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -8991,7 +9002,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -9039,16 +9050,16 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -9063,7 +9074,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9089,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -9094,7 +9105,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -9110,7 +9121,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9140,7 +9151,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9170,7 +9181,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9192,7 +9203,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9245,16 +9256,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -9269,7 +9280,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -9284,7 +9295,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -9300,7 +9311,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -9316,7 +9327,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9346,7 +9357,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9374,7 +9385,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9396,7 +9407,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9447,16 +9458,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -9471,7 +9482,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -9486,7 +9497,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -9502,7 +9513,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -9518,7 +9529,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9548,7 +9559,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9576,7 +9587,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9598,7 +9609,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9649,16 +9660,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -9673,7 +9684,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -9688,7 +9699,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -9704,7 +9715,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -9720,7 +9731,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9750,7 +9761,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9778,7 +9789,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9800,7 +9811,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9851,16 +9862,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -9875,7 +9886,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -9890,7 +9901,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -9906,7 +9917,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -9922,7 +9933,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9952,7 +9963,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9980,7 +9991,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10002,7 +10013,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10053,16 +10064,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -10077,7 +10088,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -10092,7 +10103,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -10108,7 +10119,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -10124,7 +10135,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10154,7 +10165,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10182,7 +10193,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10204,7 +10215,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10255,16 +10266,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -10279,7 +10290,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -10294,7 +10305,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -10310,7 +10321,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -10326,7 +10337,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10356,7 +10367,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10384,7 +10395,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10406,7 +10417,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10457,16 +10468,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -10481,7 +10492,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -10496,7 +10507,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -10512,7 +10523,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -10528,7 +10539,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10558,7 +10569,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10586,7 +10597,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10608,7 +10619,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10659,16 +10670,16 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -10683,7 +10694,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -10698,7 +10709,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -10714,7 +10725,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -10730,7 +10741,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10760,7 +10771,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10788,7 +10799,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10810,7 +10821,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10861,19 +10872,19 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" style="26" customWidth="1"/>
-    <col min="3" max="4" width="45.28515625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="45.26953125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="12" max="39" width="2.85546875" customWidth="1"/>
+    <col min="12" max="39" width="2.81640625" customWidth="1"/>
     <col min="40" max="70" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:71" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L1" s="64" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -10941,7 +10952,7 @@
       <c r="BQ1" s="65"/>
       <c r="BR1" s="65"/>
     </row>
-    <row r="2" spans="2:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>112</v>
       </c>
@@ -11207,7 +11218,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -11256,7 +11267,7 @@
       <c r="BM3" s="30"/>
       <c r="BN3" s="30"/>
     </row>
-    <row r="4" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -11305,7 +11316,7 @@
       <c r="BM4" s="30"/>
       <c r="BN4" s="30"/>
     </row>
-    <row r="5" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -11354,7 +11365,7 @@
       <c r="BM5" s="30"/>
       <c r="BN5" s="30"/>
     </row>
-    <row r="6" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -11406,7 +11417,7 @@
       <c r="BM6" s="30"/>
       <c r="BN6" s="30"/>
     </row>
-    <row r="7" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -11455,7 +11466,7 @@
       <c r="BM7" s="30"/>
       <c r="BN7" s="30"/>
     </row>
-    <row r="8" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -11504,7 +11515,7 @@
       <c r="BM8" s="30"/>
       <c r="BN8" s="30"/>
     </row>
-    <row r="9" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -11553,7 +11564,7 @@
       <c r="BM9" s="30"/>
       <c r="BN9" s="30"/>
     </row>
-    <row r="10" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>8</v>
       </c>
@@ -11602,7 +11613,7 @@
       <c r="BM10" s="30"/>
       <c r="BN10" s="30"/>
     </row>
-    <row r="11" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -11651,7 +11662,7 @@
       <c r="BM11" s="30"/>
       <c r="BN11" s="30"/>
     </row>
-    <row r="12" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>10</v>
       </c>
@@ -11700,7 +11711,7 @@
       <c r="BM12" s="30"/>
       <c r="BN12" s="30"/>
     </row>
-    <row r="13" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>11</v>
       </c>
@@ -11749,7 +11760,7 @@
       <c r="BM13" s="30"/>
       <c r="BN13" s="30"/>
     </row>
-    <row r="14" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>12</v>
       </c>
@@ -11801,7 +11812,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>13</v>
       </c>
@@ -11850,7 +11861,7 @@
       <c r="BM15" s="30"/>
       <c r="BN15" s="30"/>
     </row>
-    <row r="16" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>14</v>
       </c>
@@ -11902,7 +11913,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>15</v>
       </c>
@@ -11951,7 +11962,7 @@
       <c r="BM17" s="30"/>
       <c r="BN17" s="30"/>
     </row>
-    <row r="18" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>16</v>
       </c>
@@ -12022,20 +12033,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -12050,7 +12061,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -12065,7 +12076,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -12080,7 +12091,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -12095,7 +12106,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -12124,7 +12135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -12151,7 +12162,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A13" si="0">C6</f>
         <v>0.45833333333333337</v>
@@ -12178,7 +12189,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>0.5625</v>
@@ -12199,7 +12210,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C7</f>
         <v>0.5625</v>
@@ -12226,7 +12237,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -12253,7 +12264,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>0.625</v>
@@ -12280,7 +12291,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
@@ -12305,7 +12316,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
@@ -12355,14 +12366,14 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>279</v>
       </c>
@@ -12374,7 +12385,7 @@
         <v>A=B</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>280</v>
       </c>
@@ -12386,7 +12397,7 @@
         <v>B=D</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>310</v>
       </c>
@@ -12397,7 +12408,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>282</v>
       </c>
@@ -12408,7 +12419,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>285</v>
       </c>
@@ -12416,7 +12427,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>287</v>
       </c>
@@ -12424,7 +12435,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>289</v>
       </c>
@@ -12432,7 +12443,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>291</v>
       </c>
@@ -12440,7 +12451,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>293</v>
       </c>
@@ -12448,7 +12459,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>295</v>
       </c>
@@ -12460,7 +12471,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>297</v>
       </c>
@@ -12468,7 +12479,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>289</v>
       </c>
@@ -12476,7 +12487,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>300</v>
       </c>
@@ -12488,7 +12499,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>302</v>
       </c>
@@ -12496,7 +12507,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>304</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>305</v>
       </c>
@@ -12515,7 +12526,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>306</v>
       </c>
@@ -12523,7 +12534,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>308</v>
       </c>
@@ -12531,7 +12542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>313</v>
       </c>
@@ -12539,7 +12550,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>113</v>
       </c>
@@ -12554,7 +12565,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>90</v>
       </c>
@@ -12569,7 +12580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>98</v>
       </c>
@@ -12584,7 +12595,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>100</v>
       </c>
@@ -12596,22 +12607,22 @@
         <v>Value Missing</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>315</v>
       </c>
@@ -12627,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>110</v>
       </c>
@@ -12643,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>179</v>
       </c>
@@ -12659,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>316</v>
       </c>
@@ -12675,7 +12686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>178</v>
       </c>
@@ -12691,32 +12702,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>182</v>
       </c>
@@ -12730,84 +12741,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="10"/>
+    <col min="1" max="1" width="3.81640625" style="10" customWidth="1"/>
+    <col min="2" max="8" width="9.1796875" style="10"/>
     <col min="9" max="9" width="110" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="10" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="55"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -12815,41 +12826,41 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
@@ -12857,41 +12868,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
@@ -12899,41 +12910,41 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>72</v>
       </c>
@@ -12941,41 +12952,41 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
@@ -12983,41 +12994,41 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="88"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="90"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="72"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>77</v>
       </c>
@@ -13025,41 +13036,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="87"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="69"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="72"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="74"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>79</v>
       </c>
@@ -13067,41 +13078,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="87"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="90"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="72"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>81</v>
       </c>
@@ -13109,49 +13120,42 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="84"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="87"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="90"/>
+    <row r="54" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="69"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="71"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="72"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A37:I39"/>
-    <mergeCell ref="A43:I45"/>
-    <mergeCell ref="A49:I51"/>
-    <mergeCell ref="A55:I57"/>
-    <mergeCell ref="A18:I20"/>
-    <mergeCell ref="A24:I26"/>
-    <mergeCell ref="A31:I33"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="A10:I12"/>
@@ -13162,6 +13166,13 @@
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A37:I39"/>
+    <mergeCell ref="A43:I45"/>
+    <mergeCell ref="A49:I51"/>
+    <mergeCell ref="A55:I57"/>
+    <mergeCell ref="A18:I20"/>
+    <mergeCell ref="A24:I26"/>
+    <mergeCell ref="A31:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13178,20 +13189,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -13206,7 +13217,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -13221,7 +13232,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -13236,7 +13247,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -13251,7 +13262,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13280,7 +13291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -13307,7 +13318,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="0">C6</f>
         <v>0.4375</v>
@@ -13334,7 +13345,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
@@ -13361,7 +13372,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>0.47916666666666663</v>
@@ -13388,7 +13399,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>0.49999999999999994</v>
@@ -13415,7 +13426,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -13436,7 +13447,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>0.5625</v>
@@ -13463,7 +13474,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>C11</f>
         <v>0.5625</v>
@@ -13516,20 +13527,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -13544,7 +13555,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -13559,7 +13570,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -13574,7 +13585,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -13589,7 +13600,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13618,7 +13629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -13647,7 +13658,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -13674,7 +13685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.54166666666666674</v>
@@ -13695,7 +13706,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.56250000000000011</v>
@@ -13720,7 +13731,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.64583333333333348</v>
@@ -13745,7 +13756,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.68750000000000011</v>
@@ -13793,20 +13804,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -13821,7 +13832,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -13836,7 +13847,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -13851,7 +13862,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -13866,7 +13877,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13895,7 +13906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -13922,7 +13933,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A13" si="1">C6</f>
         <v>0.54166666666666674</v>
@@ -13943,7 +13954,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>0.56250000000000011</v>
@@ -13970,7 +13981,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.60416666666666674</v>
@@ -13997,7 +14008,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.64583333333333337</v>
@@ -14024,7 +14035,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.6875</v>
@@ -14051,7 +14062,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>0.72916666666666663</v>
@@ -14078,7 +14089,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>0.75</v>
@@ -14128,20 +14139,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -14156,7 +14167,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -14171,7 +14182,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -14186,7 +14197,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -14201,7 +14212,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -14230,7 +14241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -14257,7 +14268,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A12" si="0">C6</f>
         <v>0.54166666666666674</v>
@@ -14278,7 +14289,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>0.56250000000000011</v>
@@ -14303,7 +14314,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>0.60416666666666674</v>
@@ -14328,7 +14339,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
@@ -14353,7 +14364,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>0.6875</v>
@@ -14378,7 +14389,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>0.72916666666666663</v>
@@ -14426,20 +14437,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
@@ -14454,7 +14465,7 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
@@ -14469,7 +14480,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
@@ -14484,7 +14495,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
@@ -14499,7 +14510,7 @@
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -14528,7 +14539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -14555,7 +14566,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -14578,7 +14589,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.5</v>
@@ -14601,7 +14612,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -14622,7 +14633,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.47916666666666669</v>
@@ -14647,7 +14658,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.52083333333333337</v>
@@ -14672,7 +14683,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>C11</f>
         <v>0.60416666666666674</v>

--- a/Onboarding_Plan_Intern_V2.0.xlsx
+++ b/Onboarding_Plan_Intern_V2.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Mathur\Desktop\trainingInterns.git\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trainingInterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7760" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Checklists" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Day-4(C#)'!$A$1:$I$13</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1717,7 +1717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="dd"/>
@@ -2173,6 +2173,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2215,32 +2218,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2269,15 +2254,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2290,8 +2266,32 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2689,33 +2689,33 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+    </row>
+    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2761,7 +2761,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2807,7 +2807,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2853,7 +2853,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>60</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>60</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2953,7 +2953,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2999,7 +2999,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>60</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>60</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>60</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>60</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>60</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>60</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>60</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>60</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3359,7 +3359,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>60</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>60</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>60</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>60</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>60</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>60</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>60</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>60</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3665,7 +3665,7 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3687,7 +3687,7 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>46</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
     </row>
-    <row r="42" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3733,7 +3733,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>60</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>60</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3833,7 +3833,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>53</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3879,7 +3879,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>60</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>60</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>60</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>60</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4005,7 +4005,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4027,7 +4027,7 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4049,7 +4049,7 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:20" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4087,80 +4087,80 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4241,80 +4241,80 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4370,7 +4370,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="1">C6</f>
         <v>0.45833333333333337</v>
@@ -4395,7 +4395,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="1"/>
         <v>0.54166666666666674</v>
@@ -4416,7 +4416,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.56250000000000011</v>
@@ -4439,7 +4439,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.64583333333333348</v>
@@ -4464,7 +4464,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.72916666666666685</v>
@@ -4489,7 +4489,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" s="38" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="38" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <f t="shared" si="1"/>
         <v>0.77083333333333348</v>
@@ -4537,80 +4537,80 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4666,7 +4666,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="46"/>
     </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -4691,7 +4691,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.54166666666666674</v>
@@ -4712,7 +4712,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -4733,7 +4733,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.63541666666666674</v>
@@ -4756,7 +4756,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.69791666666666674</v>
@@ -4798,84 +4798,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -4931,7 +4931,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="46"/>
     </row>
-    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="1">C6</f>
         <v>0.5</v>
@@ -4954,12 +4954,12 @@
       <c r="H7" s="5"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="52">
         <v>6.25E-2</v>
       </c>
       <c r="C8" s="22">
@@ -4975,7 +4975,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
@@ -4998,7 +4998,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.64583333333333326</v>
@@ -5025,7 +5025,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.68749999999999989</v>
@@ -5052,7 +5052,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>0.72916666666666652</v>
@@ -5103,80 +5103,80 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5232,7 +5232,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="1">C6</f>
         <v>0.5</v>
@@ -5255,7 +5255,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
@@ -5276,7 +5276,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
@@ -5299,7 +5299,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.63541666666666663</v>
@@ -5326,7 +5326,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.67708333333333326</v>
@@ -5353,7 +5353,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>0.69791666666666663</v>
@@ -5403,59 +5403,59 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="48" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="48" t="s">
         <v>253</v>
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.5</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E8" s="47"/>
     </row>
-    <row r="9" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f>C8</f>
         <v>0.54166666666666663</v>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.58333333333333326</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.63541666666666663</v>
@@ -5595,59 +5595,59 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="5" width="56.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="5" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="48" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="48" t="s">
         <v>253</v>
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.47916666666666669</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.54166666666666674</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.63541666666666674</v>
@@ -5770,25 +5770,25 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" customWidth="1"/>
-    <col min="9" max="9" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="48" t="s">
         <v>248</v>
       </c>
@@ -5798,12 +5798,12 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="48" t="s">
         <v>117</v>
       </c>
@@ -5813,12 +5813,12 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="48" t="s">
         <v>253</v>
       </c>
@@ -5828,12 +5828,12 @@
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -5843,7 +5843,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -5918,80 +5918,80 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6049,7 +6049,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -6070,7 +6070,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -6099,7 +6099,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -6151,80 +6151,80 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6282,7 +6282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -6303,7 +6303,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -6332,7 +6332,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -6384,80 +6384,80 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6513,7 +6513,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -6538,7 +6538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.5625</v>
@@ -6559,7 +6559,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -6588,7 +6588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.66666666666666674</v>
@@ -6636,84 +6636,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -6771,7 +6771,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -6792,7 +6792,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -6821,7 +6821,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -6873,80 +6873,80 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7004,7 +7004,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -7025,7 +7025,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -7054,7 +7054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.68750000000000011</v>
@@ -7106,80 +7106,80 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7237,7 +7237,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5</v>
@@ -7266,7 +7266,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f>C6</f>
         <v>0.5</v>
@@ -7287,7 +7287,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.52083333333333337</v>
@@ -7316,7 +7316,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.64583333333333337</v>
@@ -7368,80 +7368,80 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7499,7 +7499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.5625</v>
@@ -7520,7 +7520,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.58333333333333337</v>
@@ -7547,7 +7547,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.70833333333333337</v>
@@ -7599,80 +7599,80 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7728,7 +7728,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.5625</v>
@@ -7749,7 +7749,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.58333333333333337</v>
@@ -7778,7 +7778,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.66666666666666674</v>
@@ -7828,80 +7828,80 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -7959,7 +7959,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -7980,7 +7980,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.56250000000000011</v>
@@ -8009,7 +8009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.64583333333333348</v>
@@ -8059,80 +8059,80 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8190,7 +8190,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.5</v>
@@ -8211,7 +8211,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.52083333333333337</v>
@@ -8238,7 +8238,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.60416666666666674</v>
@@ -8288,78 +8288,78 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="43.7265625" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8442,78 +8442,78 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8571,7 +8571,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8593,7 +8593,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8644,78 +8644,78 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8775,7 +8775,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8797,7 +8797,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -8850,80 +8850,80 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -8981,7 +8981,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -9002,7 +9002,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.54166666666666674</v>
@@ -9050,78 +9050,78 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9181,7 +9181,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9203,7 +9203,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9256,78 +9256,78 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9385,7 +9385,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9407,7 +9407,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9458,78 +9458,78 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9587,7 +9587,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9609,7 +9609,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9660,78 +9660,78 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9789,7 +9789,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9811,7 +9811,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -9862,78 +9862,78 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -9991,7 +9991,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10013,7 +10013,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10064,78 +10064,78 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10193,7 +10193,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10215,7 +10215,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10266,78 +10266,78 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10395,7 +10395,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10417,7 +10417,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10468,78 +10468,78 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10597,7 +10597,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10619,7 +10619,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10670,78 +10670,78 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -10799,7 +10799,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10821,7 +10821,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C6</f>
         <v>0.5625</v>
@@ -10872,87 +10872,87 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" style="26" customWidth="1"/>
-    <col min="3" max="4" width="45.26953125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="26" customWidth="1"/>
+    <col min="3" max="4" width="45.28515625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="12" max="39" width="2.81640625" customWidth="1"/>
+    <col min="12" max="39" width="2.85546875" customWidth="1"/>
     <col min="40" max="70" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="64" t="e">
+    <row r="1" spans="2:71" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="65" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="65" t="s">
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-    </row>
-    <row r="2" spans="2:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+    </row>
+    <row r="2" spans="2:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>112</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="27">
         <v>1</v>
       </c>
@@ -11267,7 +11267,7 @@
       <c r="BM3" s="30"/>
       <c r="BN3" s="30"/>
     </row>
-    <row r="4" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="BM4" s="30"/>
       <c r="BN4" s="30"/>
     </row>
-    <row r="5" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="BM5" s="30"/>
       <c r="BN5" s="30"/>
     </row>
-    <row r="6" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="BM6" s="30"/>
       <c r="BN6" s="30"/>
     </row>
-    <row r="7" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -11466,7 +11466,7 @@
       <c r="BM7" s="30"/>
       <c r="BN7" s="30"/>
     </row>
-    <row r="8" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -11515,7 +11515,7 @@
       <c r="BM8" s="30"/>
       <c r="BN8" s="30"/>
     </row>
-    <row r="9" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="BM9" s="30"/>
       <c r="BN9" s="30"/>
     </row>
-    <row r="10" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27">
         <v>8</v>
       </c>
@@ -11613,7 +11613,7 @@
       <c r="BM10" s="30"/>
       <c r="BN10" s="30"/>
     </row>
-    <row r="11" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27">
         <v>9</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="BM11" s="30"/>
       <c r="BN11" s="30"/>
     </row>
-    <row r="12" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27">
         <v>10</v>
       </c>
@@ -11711,7 +11711,7 @@
       <c r="BM12" s="30"/>
       <c r="BN12" s="30"/>
     </row>
-    <row r="13" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27">
         <v>11</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="BM13" s="30"/>
       <c r="BN13" s="30"/>
     </row>
-    <row r="14" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27">
         <v>12</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27">
         <v>13</v>
       </c>
@@ -11861,7 +11861,7 @@
       <c r="BM15" s="30"/>
       <c r="BN15" s="30"/>
     </row>
-    <row r="16" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27">
         <v>14</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27">
         <v>15</v>
       </c>
@@ -11962,7 +11962,7 @@
       <c r="BM17" s="30"/>
       <c r="BN17" s="30"/>
     </row>
-    <row r="18" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:71" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27">
         <v>16</v>
       </c>
@@ -12033,80 +12033,80 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -12162,7 +12162,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A13" si="0">C6</f>
         <v>0.45833333333333337</v>
@@ -12189,7 +12189,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>0.5625</v>
@@ -12210,7 +12210,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C7</f>
         <v>0.5625</v>
@@ -12237,7 +12237,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C8</f>
         <v>0.58333333333333337</v>
@@ -12264,7 +12264,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>0.625</v>
@@ -12291,7 +12291,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
@@ -12316,7 +12316,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
@@ -12366,14 +12366,14 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>279</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>A=B</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
         <v>280</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>B=D</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>310</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>282</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>285</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>287</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>289</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>291</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>293</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>295</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>297</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>289</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>300</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>302</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>304</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>305</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>306</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>308</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>313</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>113</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>90</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>98</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>100</v>
       </c>
@@ -12607,22 +12607,22 @@
         <v>Value Missing</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
         <v>315</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>110</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="31" t="s">
         <v>179</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="s">
         <v>316</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
         <v>178</v>
       </c>
@@ -12702,32 +12702,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
         <v>182</v>
       </c>
@@ -12745,80 +12745,80 @@
       <selection activeCell="A24" sqref="A24:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="10" customWidth="1"/>
-    <col min="2" max="8" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="10"/>
     <col min="9" max="9" width="110" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="10"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-    </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -12826,41 +12826,41 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
@@ -12868,41 +12868,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="80"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
@@ -12910,41 +12910,41 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>72</v>
       </c>
@@ -12952,41 +12952,41 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="85"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="88"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
@@ -12994,41 +12994,41 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="68"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="71"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="85"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="88"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>77</v>
       </c>
@@ -13036,41 +13036,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="68"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="74"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="88"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>79</v>
       </c>
@@ -13078,41 +13078,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="68"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="71"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="83"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="85"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="86"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="88"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>81</v>
       </c>
@@ -13120,42 +13120,49 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="68"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="69"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="71"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="74"/>
+    <row r="54" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="83"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="85"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="86"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="88"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A37:I39"/>
+    <mergeCell ref="A43:I45"/>
+    <mergeCell ref="A49:I51"/>
+    <mergeCell ref="A55:I57"/>
+    <mergeCell ref="A18:I20"/>
+    <mergeCell ref="A24:I26"/>
+    <mergeCell ref="A31:I33"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="A10:I12"/>
@@ -13166,13 +13173,6 @@
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A37:I39"/>
-    <mergeCell ref="A43:I45"/>
-    <mergeCell ref="A49:I51"/>
-    <mergeCell ref="A55:I57"/>
-    <mergeCell ref="A18:I20"/>
-    <mergeCell ref="A24:I26"/>
-    <mergeCell ref="A31:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13189,80 +13189,80 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -13318,7 +13318,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A12" si="0">C6</f>
         <v>0.4375</v>
@@ -13345,7 +13345,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
@@ -13372,7 +13372,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>0.47916666666666663</v>
@@ -13399,7 +13399,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>0.49999999999999994</v>
@@ -13426,7 +13426,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -13447,7 +13447,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>0.5625</v>
@@ -13474,7 +13474,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f>C11</f>
         <v>0.5625</v>
@@ -13527,80 +13527,80 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -13658,7 +13658,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -13685,7 +13685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f>C7</f>
         <v>0.54166666666666674</v>
@@ -13706,7 +13706,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>C8</f>
         <v>0.56250000000000011</v>
@@ -13731,7 +13731,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.64583333333333348</v>
@@ -13756,7 +13756,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.68750000000000011</v>
@@ -13804,80 +13804,80 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -13933,7 +13933,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A13" si="1">C6</f>
         <v>0.54166666666666674</v>
@@ -13954,7 +13954,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>0.56250000000000011</v>
@@ -13981,7 +13981,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>0.60416666666666674</v>
@@ -14008,7 +14008,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>0.64583333333333337</v>
@@ -14035,7 +14035,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>0.6875</v>
@@ -14062,7 +14062,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>0.72916666666666663</v>
@@ -14089,7 +14089,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>0.75</v>
@@ -14139,80 +14139,80 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -14268,7 +14268,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A12" si="0">C6</f>
         <v>0.54166666666666674</v>
@@ -14289,7 +14289,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>0.56250000000000011</v>
@@ -14314,7 +14314,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>0.60416666666666674</v>
@@ -14339,7 +14339,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
@@ -14364,7 +14364,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>0.6875</v>
@@ -14389,7 +14389,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>0.72916666666666663</v>
@@ -14437,80 +14437,80 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>D4</f>
         <v>0.41666666666666669</v>
@@ -14566,7 +14566,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -14589,7 +14589,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>C7</f>
         <v>0.5</v>
@@ -14612,7 +14612,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f>C6</f>
         <v>0.45833333333333337</v>
@@ -14633,7 +14633,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>C9</f>
         <v>0.47916666666666669</v>
@@ -14658,7 +14658,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f>C10</f>
         <v>0.52083333333333337</v>
@@ -14683,7 +14683,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f>C11</f>
         <v>0.60416666666666674</v>
